--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2073913.055310789</v>
+        <v>2181142.496708876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9699333.681794263</v>
+        <v>9712782.127173908</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>55.9814103803652</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>264.6530118728076</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.115799983896275</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>18.44425399647972</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>211.1423685941299</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>168.1161921880573</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>89.42446236113199</v>
       </c>
       <c r="T7" t="n">
-        <v>179.1714358249125</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>258.5632837057339</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>320.5832054814074</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>117.5935235570295</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>186.0075781472444</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>22.04658882052578</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>78.58522891595192</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>41.33703994142856</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856758</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016408</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>105.1162657551345</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465654</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5361117049745</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>85.08368458989425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6920487814951</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>209.5844008505285</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.55695577161328</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>177.3063452156889</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.8265476954863</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>147.8972104906236</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>3.006892987834117</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.62151774815476</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.0868108027809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.500788950814</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.538272010403</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.272573403652</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>934.4843208054078</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>523.4984160158003</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>107.7936657400892</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>107.7936657400892</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.500788950814</v>
+        <v>2295.013053781158</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014357</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.2765195627319</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1631.278645343289</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1631.278645343289</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1631.278645343289</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1342.160307847127</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.47581964124</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W4" t="n">
-        <v>798.0586496042794</v>
+        <v>851.0342539747801</v>
       </c>
       <c r="X4" t="n">
-        <v>570.069098706262</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.2765195627319</v>
+        <v>623.0447030767627</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1819.911053198664</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1461.645354591913</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2839.523069976995</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>2466.057311715915</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>496.992271614743</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1443.534973831361</v>
       </c>
       <c r="T7" t="n">
-        <v>1554.627415607327</v>
+        <v>1443.534973831361</v>
       </c>
       <c r="U7" t="n">
-        <v>1554.627415607327</v>
+        <v>1443.534973831361</v>
       </c>
       <c r="V7" t="n">
-        <v>1299.94292740144</v>
+        <v>1188.850485625474</v>
       </c>
       <c r="W7" t="n">
-        <v>1010.525757364479</v>
+        <v>899.4333155885129</v>
       </c>
       <c r="X7" t="n">
-        <v>1010.525757364479</v>
+        <v>899.4333155885129</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>678.6407364449827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C8" t="n">
-        <v>1616.654488422266</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1258.388789815515</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>633.7673475025059</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>464.831164574599</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1547.722221342345</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1547.722221342345</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>1547.722221342345</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.305051305384</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.315500407367</v>
+        <v>854.559926646036</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.5229212638368</v>
+        <v>633.7673475025059</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5078,10 +5080,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756264</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.841793202178</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5300,28 +5302,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5345,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101817</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E16" t="n">
-        <v>424.9938751277886</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>340.3917814401141</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>173.195682154994</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,28 +5579,28 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913852</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
         <v>1336.167399417937</v>
@@ -5607,7 +5609,7 @@
         <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2939.372134388643</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>2770.435951460736</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>2770.435951460736</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>2770.435951460736</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305898</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328839</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673037</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467151</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.15426443019</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532173</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>2939.372134388643</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,43 +5816,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263523</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356156</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232799</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263523</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6004,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385789</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913444</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084665</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300423</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926975</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>4435.461999481582</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>4435.461999481582</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.57149202371</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T28" t="n">
-        <v>2052.406834234631</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U28" t="n">
-        <v>2052.406834234631</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V28" t="n">
-        <v>1797.722346028744</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6446,19 +6448,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3007.624207651098</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C31" t="n">
-        <v>2838.688024723192</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>2688.571385310856</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>2688.571385310856</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2688.571385310856</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2521.375286025736</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2379.663454867934</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559846</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W31" t="n">
-        <v>3638.054802522885</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X31" t="n">
-        <v>3410.065251624868</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y31" t="n">
-        <v>3189.272672481338</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>700.7543264856228</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>3421.617977067587</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>3200.825397924057</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>96.85392869224876</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>96.85392869224876</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7254,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>559.3040775751642</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>559.3040775751642</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>412.4141300772538</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>245.2180307921338</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7737,13 +7739,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
-        <v>199.7516311504066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>45.76488231024496</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>68.49784254931346</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>123.3744592024055</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>61.70948393027197</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>104.0840080815027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>181.4067325814565</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>114.1735436840627</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>80.4404537023746</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>32.89260457059967</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>30.95754073885419</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>7.821049476759754</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>39.70888054695225</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>74.83129810813915</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.005432486451042</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>77.8124448984135</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>78.25894333073141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>71.67319509806913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.4978425493139</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>848887.1416910385</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>848887.1416910385</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808328</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732055</v>
+        <v>8117.312426732006</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732023</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732045</v>
+        <v>8117.312426732026</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732055</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26451,7 +26453,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-746752.2731260231</v>
       </c>
       <c r="C6" t="n">
-        <v>196578.2537800233</v>
+        <v>367999.5104498972</v>
       </c>
       <c r="D6" t="n">
-        <v>400016.9953921288</v>
+        <v>367999.510449897</v>
       </c>
       <c r="E6" t="n">
-        <v>150528.9807172604</v>
+        <v>-31543.99909993052</v>
       </c>
       <c r="F6" t="n">
-        <v>475941.4425246156</v>
+        <v>475941.4425246154</v>
       </c>
       <c r="G6" t="n">
+        <v>475941.442524615</v>
+      </c>
+      <c r="H6" t="n">
+        <v>475941.4425246155</v>
+      </c>
+      <c r="I6" t="n">
         <v>475941.4425246153</v>
       </c>
-      <c r="H6" t="n">
-        <v>475941.4425246153</v>
-      </c>
-      <c r="I6" t="n">
-        <v>475941.4425246156</v>
-      </c>
       <c r="J6" t="n">
-        <v>308336.2647146332</v>
+        <v>308336.2647146328</v>
       </c>
       <c r="K6" t="n">
-        <v>426831.3498185609</v>
+        <v>475941.4425246158</v>
       </c>
       <c r="L6" t="n">
         <v>475941.4425246153</v>
       </c>
       <c r="M6" t="n">
-        <v>390886.4145891037</v>
+        <v>343334.1487956886</v>
       </c>
       <c r="N6" t="n">
         <v>475941.4425246153</v>
       </c>
       <c r="O6" t="n">
-        <v>475941.4425246155</v>
+        <v>475941.4425246154</v>
       </c>
       <c r="P6" t="n">
-        <v>475941.4425246155</v>
+        <v>475941.4425246154</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,13 +26740,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,19 +26962,19 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.728502292105262</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>105.0780888056615</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>96.44177243567734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>268.0787443401113</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>170.7880014781319</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>181.1247765293557</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>105.2379980006055</v>
       </c>
       <c r="T7" t="n">
-        <v>40.37751345125665</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>124.1705579577467</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>61.34716459085433</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>31.02194946118283</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>33.54137112892479</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28965,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857169</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,19 +32320,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950821</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639541</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>477.8500485393217</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,10 +34219,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882568</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,13 +34792,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>295.4444114337773</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023836</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075186</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410454</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962379</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36847,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2181142.496708876</v>
+        <v>2177005.339458724</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9712782.127173908</v>
+        <v>9712782.127173906</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>83.51326306792794</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>264.6530118728076</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>141.6464229351534</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>18.44425399647972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>211.1423685941299</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>89.29539347308867</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>89.42446236113199</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>258.5632837057339</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>130.989871443207</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>117.5935235570295</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>112.5284434523311</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>78.58522891595192</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016408</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>238.835674028268</v>
       </c>
       <c r="W19" t="n">
-        <v>105.1162657551345</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465654</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>27.77749086859546</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>111.5361117049745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.6920487814951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.41770597126747</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>177.3063452156889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>147.8972104906236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>113.4862783316167</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2295.013053781158</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>1275.288014512648</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>917.0223159058974</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>917.0223159058974</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>506.0364111162898</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2295.013053781158</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>2295.013053781158</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.0447030767627</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="C4" t="n">
-        <v>454.1085201488559</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D4" t="n">
-        <v>303.9918807365201</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1194.156770865947</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>1194.156770865947</v>
       </c>
       <c r="W4" t="n">
-        <v>851.0342539747801</v>
+        <v>904.7396008289868</v>
       </c>
       <c r="X4" t="n">
-        <v>623.0447030767627</v>
+        <v>676.7500499309695</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.0447030767627</v>
+        <v>455.9574707874393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2188.873570139076</v>
+        <v>977.0694062730067</v>
       </c>
       <c r="C5" t="n">
-        <v>1819.911053198664</v>
+        <v>977.0694062730067</v>
       </c>
       <c r="D5" t="n">
-        <v>1461.645354591913</v>
+        <v>618.8037076662563</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>618.8037076662563</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>207.8178028766487</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139076</v>
+        <v>1363.669246337128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1946.556931114679</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.992271614743</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>496.992271614743</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1443.534973831361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1443.534973831361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1443.534973831361</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1188.850485625474</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>899.4333155885129</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>899.4333155885129</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.6407364449827</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1416.637639419809</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1058.371940813058</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>672.5836882148142</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>261.5977834252066</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>249.9334371898996</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.507785786471</v>
+        <v>2172.199996424342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>633.7673475025059</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>464.831164574599</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544053</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.549477544053</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>854.559926646036</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>633.7673475025059</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,25 +5059,25 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>340.3917814401141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>173.195682154994</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5667,16 +5667,16 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854711</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1157.720528233637</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,22 +5770,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263523</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356156</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232799</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2418.905011995821</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.667160263523</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263523</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2411.187623003223</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.187623003223</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6448,19 +6448,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,7 +6469,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.0422355233313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1728.890000432079</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1439.472830395119</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.483279497101</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.6907003535711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3031.88921499615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3421.617977067587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3200.825397924057</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4517.069482196493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4517.069482196493</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>45.76488231024496</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>68.49784254931346</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>61.70948393027197</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>13.30196929556001</v>
       </c>
       <c r="W19" t="n">
-        <v>181.4067325814565</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>38.5977558415262</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>114.1735436840627</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.89260457059967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>30.95754073885419</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>74.83129810813915</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>77.8124448984135</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>112.2233770574204</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
@@ -26340,13 +26340,13 @@
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,34 +26420,34 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732006</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426732038</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426732026</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426732025</v>
-      </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746752.2731260231</v>
+        <v>-746752.2731260229</v>
       </c>
       <c r="C6" t="n">
-        <v>367999.5104498972</v>
+        <v>367999.5104498966</v>
       </c>
       <c r="D6" t="n">
-        <v>367999.510449897</v>
+        <v>367999.5104498965</v>
       </c>
       <c r="E6" t="n">
-        <v>-31543.99909993052</v>
+        <v>-31891.37835428749</v>
       </c>
       <c r="F6" t="n">
-        <v>475941.4425246154</v>
+        <v>475594.0632702584</v>
       </c>
       <c r="G6" t="n">
-        <v>475941.442524615</v>
+        <v>475594.063270258</v>
       </c>
       <c r="H6" t="n">
-        <v>475941.4425246155</v>
+        <v>475594.0632702582</v>
       </c>
       <c r="I6" t="n">
-        <v>475941.4425246153</v>
+        <v>475594.0632702583</v>
       </c>
       <c r="J6" t="n">
-        <v>308336.2647146328</v>
+        <v>307988.885460276</v>
       </c>
       <c r="K6" t="n">
-        <v>475941.4425246158</v>
+        <v>475594.0632702584</v>
       </c>
       <c r="L6" t="n">
-        <v>475941.4425246153</v>
+        <v>475594.0632702584</v>
       </c>
       <c r="M6" t="n">
-        <v>343334.1487956886</v>
+        <v>342986.7695413317</v>
       </c>
       <c r="N6" t="n">
-        <v>475941.4425246153</v>
+        <v>475594.0632702583</v>
       </c>
       <c r="O6" t="n">
-        <v>475941.4425246154</v>
+        <v>475594.0632702584</v>
       </c>
       <c r="P6" t="n">
-        <v>475941.4425246154</v>
+        <v>475594.0632702583</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>328.034439705026</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>105.0780888056615</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>144.5807311860472</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.0787443401113</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>170.7880014781319</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>322.2523092998653</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>105.2379980006055</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,13 +27833,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.1705579577467</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>170.0286811191984</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.02194946118283</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,10 +32083,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>295.4444114337773</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,10 +35731,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36454,10 +36454,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2177005.339458724</v>
+        <v>2178765.869761509</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9712782.127173906</v>
+        <v>9712782.127173908</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>83.51326306792794</v>
+        <v>83.51326306792748</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>141.6464229351534</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>141.6464229351534</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>89.29539347308867</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>63.98562935618878</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>130.989871443207</v>
+        <v>226.9686834372103</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>36.86080948088116</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>238.835674028268</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>27.77749086859546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>121.8000472740347</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>113.4862783316167</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4309,16 +4309,16 @@
         <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.288014512648</v>
+        <v>1275.288014512647</v>
       </c>
       <c r="D2" t="n">
-        <v>917.0223159058974</v>
+        <v>917.0223159058969</v>
       </c>
       <c r="E2" t="n">
-        <v>917.0223159058974</v>
+        <v>917.0223159058969</v>
       </c>
       <c r="F2" t="n">
-        <v>506.0364111162898</v>
+        <v>506.0364111162893</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.9574707874393</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4521,19 +4521,19 @@
         <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.156770865947</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1194.156770865947</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>904.7396008289868</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X4" t="n">
-        <v>676.7500499309695</v>
+        <v>819.8272448149628</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.9574707874393</v>
+        <v>599.0346656714327</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>977.0694062730067</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="C5" t="n">
-        <v>977.0694062730067</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="D5" t="n">
-        <v>618.8037076662563</v>
+        <v>1008.943039642068</v>
       </c>
       <c r="E5" t="n">
-        <v>618.8037076662563</v>
+        <v>1008.943039642068</v>
       </c>
       <c r="F5" t="n">
-        <v>207.8178028766487</v>
+        <v>597.957134852461</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>182.2523845767498</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.669246337128</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4725,25 +4725,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419809</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813058</v>
+        <v>684.9061825519805</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148142</v>
+        <v>299.1179299537362</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252066</v>
+        <v>292.1724292045328</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9334371898996</v>
+        <v>280.5080829692257</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400154</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424342</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145207</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4944,43 +4944,43 @@
         <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273903</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1447.137698270597</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1157.720528233637</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>929.7309773356194</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356194</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,31 +5767,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>552.8412329032296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
         <v>402.7245934908939</v>
@@ -5904,58 +5904,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2418.905011995821</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2236.050177650725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2016.448712673667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1183.271827775017</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>955.2822768769995</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.4896977334694</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,7 +6469,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,7 +6709,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7168,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.506425581584</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7138464380538</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>54.95314511566482</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566602</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.077743684667804e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>249.323664908363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>13.30196929556001</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.5977558415262</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>24.63391537253447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856017.4546923236</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856017.4546923236</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516051</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
@@ -26337,25 +26337,25 @@
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84042391992989e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,19 +26420,19 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.31242673194</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8117.312426732038</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426732015</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26447,16 +26447,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746752.2731260229</v>
+        <v>-746752.2731260227</v>
       </c>
       <c r="C6" t="n">
+        <v>367999.5104498969</v>
+      </c>
+      <c r="D6" t="n">
         <v>367999.5104498966</v>
       </c>
-      <c r="D6" t="n">
-        <v>367999.5104498965</v>
-      </c>
       <c r="E6" t="n">
-        <v>-31891.37835428749</v>
+        <v>-31578.73702536627</v>
       </c>
       <c r="F6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="G6" t="n">
-        <v>475594.063270258</v>
+        <v>475906.7045991801</v>
       </c>
       <c r="H6" t="n">
-        <v>475594.0632702582</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="I6" t="n">
-        <v>475594.0632702583</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="J6" t="n">
-        <v>307988.885460276</v>
+        <v>308301.5267891972</v>
       </c>
       <c r="K6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991798</v>
       </c>
       <c r="L6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="M6" t="n">
-        <v>342986.7695413317</v>
+        <v>343299.4108702529</v>
       </c>
       <c r="N6" t="n">
-        <v>475594.0632702583</v>
+        <v>475906.7045991795</v>
       </c>
       <c r="O6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991795</v>
       </c>
       <c r="P6" t="n">
-        <v>475594.0632702583</v>
+        <v>475906.7045991798</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>328.034439705026</v>
+        <v>328.0344397050265</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>24.66017710965079</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>144.5807311860472</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>322.2523092998653</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>237.0329232062166</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>170.0286811191984</v>
+        <v>74.04986912519504</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>631.9617651335544</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980277</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535151</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346383</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065834</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
